--- a/src/R/translations.xlsx
+++ b/src/R/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfernandoquezada/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E268F6A5-D1D6-2040-86D4-1269D3F517FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{E268F6A5-D1D6-2040-86D4-1269D3F517FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F11CA3-905B-48AF-A7DC-EC44D43C9FAB}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DASHBOARD!$A$1:$E$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MSG!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">QA_REPORT!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">REPORT!$A$1:$E$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">REPORT!$A$1:$E$170</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1675">
   <si>
     <t>LABEL</t>
   </si>
@@ -7369,6 +7369,69 @@
   </si>
   <si>
     <t>Fechar</t>
+  </si>
+  <si>
+    <t>silent_mun_lab</t>
+  </si>
+  <si>
+    <t>Municipios silenciosos</t>
+  </si>
+  <si>
+    <t>Silent municipalities</t>
+  </si>
+  <si>
+    <t>Municípios silenciosos</t>
+  </si>
+  <si>
+    <t>Municipalités silencieuses</t>
+  </si>
+  <si>
+    <t>silent_mun_legend</t>
+  </si>
+  <si>
+    <t>Reporta casos sospechosos</t>
+  </si>
+  <si>
+    <t>Reports suspicious cases</t>
+  </si>
+  <si>
+    <t>Relata casos suspeitos</t>
+  </si>
+  <si>
+    <t>Signale des cas suspects</t>
+  </si>
+  <si>
+    <t>silent_mun_infobox_text</t>
+  </si>
+  <si>
+    <t>Número de municipios silenciosos</t>
+  </si>
+  <si>
+    <t>Number of silent municipalities</t>
+  </si>
+  <si>
+    <t>Número de municípios silenciosos</t>
+  </si>
+  <si>
+    <t>Nombre de municipalités silencieuses</t>
+  </si>
+  <si>
+    <t>title_figure_3f</t>
+  </si>
+  <si>
+    <t>silent_mun_lab_pct</t>
+  </si>
+  <si>
+    <t>Porcentaje de municipios silenciosos</t>
+  </si>
+  <si>
+    <t>Percentage of silent municipalities</t>
+  </si>
+  <si>
+    <t>Percentagem de municípios silenciosos</t>
+  </si>
+  <si>
+    <t>Pourcentage des municipalités silencieuses</t>
   </si>
 </sst>
 </file>
@@ -7613,9 +7676,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7653,7 +7716,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7759,7 +7822,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7901,7 +7964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7920,18 +7983,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="76" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.1640625" style="4" customWidth="1"/>
     <col min="3" max="5" width="63.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7948,7 +8013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7965,7 +8030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7982,7 +8047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7999,7 +8064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -8016,7 +8081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
@@ -8033,7 +8098,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -8050,7 +8115,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -8067,7 +8132,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -8084,7 +8149,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -8101,7 +8166,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -8118,7 +8183,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -8135,7 +8200,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -8152,7 +8217,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -8169,7 +8234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -8186,7 +8251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -8203,7 +8268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -8220,7 +8285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>60</v>
       </c>
@@ -8237,7 +8302,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
@@ -8254,7 +8319,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -8271,7 +8336,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -8288,7 +8353,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
@@ -8305,7 +8370,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>70</v>
       </c>
@@ -8322,7 +8387,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -8339,7 +8404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>77</v>
       </c>
@@ -8356,7 +8421,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
@@ -8373,7 +8438,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>81</v>
       </c>
@@ -8390,7 +8455,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
@@ -8407,7 +8472,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
@@ -8424,7 +8489,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
@@ -8441,7 +8506,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="93" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>88</v>
       </c>
@@ -8458,7 +8523,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="220" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="220" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -8475,7 +8540,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
@@ -8492,7 +8557,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>94</v>
       </c>
@@ -8509,7 +8574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>96</v>
       </c>
@@ -8526,7 +8591,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>98</v>
       </c>
@@ -8543,7 +8608,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -8560,7 +8625,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>102</v>
       </c>
@@ -8577,7 +8642,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>104</v>
       </c>
@@ -8594,7 +8659,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>106</v>
       </c>
@@ -8611,7 +8676,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>108</v>
       </c>
@@ -8628,7 +8693,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>110</v>
       </c>
@@ -8645,7 +8710,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>112</v>
       </c>
@@ -8662,7 +8727,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>114</v>
       </c>
@@ -8679,7 +8744,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>116</v>
       </c>
@@ -8696,7 +8761,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -8713,7 +8778,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>123</v>
       </c>
@@ -8730,7 +8795,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>125</v>
       </c>
@@ -8747,7 +8812,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -8764,7 +8829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -8781,7 +8846,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>137</v>
       </c>
@@ -8798,7 +8863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -8815,7 +8880,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>147</v>
       </c>
@@ -8832,7 +8897,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>149</v>
       </c>
@@ -8849,7 +8914,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>151</v>
       </c>
@@ -8866,7 +8931,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>153</v>
       </c>
@@ -8883,7 +8948,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>155</v>
       </c>
@@ -8900,7 +8965,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>157</v>
       </c>
@@ -8917,7 +8982,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>159</v>
       </c>
@@ -8934,910 +8999,910 @@
         <v>986</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+    <row r="63" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E70" s="8" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>887</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B73" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>888</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>889</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E74" s="8" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>890</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B76" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+    <row r="77" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>892</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>894</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E79" s="8" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E80" s="8" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B81" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>896</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E81" s="8" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B84" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E84" s="8" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>235</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>242</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E89" s="8" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B91" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B92" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E92" s="8" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B93" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E93" s="8" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E95" s="8" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B97" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C97" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C98" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C99" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E99" s="8" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+    <row r="100" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B100" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B101" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C101" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C102" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E102" s="8" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>270</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>275</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>280</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E105" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>285</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>294</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E108" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>299</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>300</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>301</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E111" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E112" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>303</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>308</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>304</v>
@@ -9852,960 +9917,1045 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>309</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B116" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D116" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>316</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C118" s="15" t="s">
         <v>910</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B119" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C119" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>1117</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C120" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>1118</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E120" s="8" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B121" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C121" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>324</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E121" s="8" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B122" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C122" s="15" t="s">
         <v>914</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>1119</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E122" s="8" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B123" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>728</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B124" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C124" s="15" t="s">
         <v>915</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>1120</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+    <row r="125" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B125" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C125" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B126" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C126" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>1085</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B127" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C127" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>1122</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B128" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C128" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>1118</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B129" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C129" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>1123</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B130" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C130" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>341</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B131" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C131" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>1124</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+    <row r="132" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B132" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C132" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E132" s="8" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C133" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>1126</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E133" s="8" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C134" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>1127</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B135" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C135" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>1128</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B136" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C136" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>1129</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>354</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B137" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>359</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B138" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E138" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B139" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E139" s="8" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>366</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B140" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>367</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B141" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E141" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>368</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B142" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>369</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C144" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B145" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C144" s="15" t="s">
+      <c r="C145" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E145" s="8" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>374</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B147" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C147" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>1130</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>381</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B149" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C148" s="15" t="s">
+      <c r="C149" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>1131</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E149" s="8" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B150" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C150" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>1132</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E150" s="8" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B151" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C150" s="15" t="s">
+      <c r="C151" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>1133</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B152" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="C152" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D152" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E152" s="8" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B153" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C153" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>1135</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E153" s="8" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B154" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C153" s="15" t="s">
+      <c r="C154" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>1136</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E154" s="8" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B155" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="C155" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D155" t="s">
         <v>1137</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E155" s="8" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B156" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C156" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>1138</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E156" s="8" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B157" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C156" s="15" t="s">
+      <c r="C157" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>1139</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B158" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C157" s="15" t="s">
+      <c r="C158" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>401</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B159" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C159" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>1140</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>404</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B160" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D160" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E160" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>409</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E161" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C161" s="15" t="s">
+      <c r="C162" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D162" t="s">
         <v>1141</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>415</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B163" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C163" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E163" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B164" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C163" s="15" t="s">
+      <c r="C164" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D164" t="s">
         <v>1142</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E164" s="8" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B165" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C164" s="15" t="s">
+      <c r="C165" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>1143</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E165" s="8" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B166" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C165" s="15" t="s">
+      <c r="C166" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>1144</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E166" s="8" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B167" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C166" s="15" t="s">
+      <c r="C167" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>1142</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E167" s="8" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C167" s="15" t="s">
+      <c r="C168" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>1145</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E168" s="8" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B169" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C168" s="15" t="s">
+      <c r="C169" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>401</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E169" s="8" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B170" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C169" s="15" t="s">
+      <c r="C170" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D170" t="s">
         <v>1140</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E170" s="8" t="s">
         <v>1048</v>
       </c>
     </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1674</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E169" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}"/>
+  <autoFilter ref="A1:E170" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10818,14 +10968,14 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" style="4" customWidth="1"/>
     <col min="3" max="5" width="53.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +10992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>431</v>
       </c>
@@ -10859,7 +11009,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>433</v>
       </c>
@@ -10876,7 +11026,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>435</v>
       </c>
@@ -10893,7 +11043,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -10910,7 +11060,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>437</v>
       </c>
@@ -10927,7 +11077,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -10944,7 +11094,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -10961,7 +11111,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>443</v>
       </c>
@@ -10978,7 +11128,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>445</v>
       </c>
@@ -10995,7 +11145,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>447</v>
       </c>
@@ -11012,7 +11162,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>449</v>
       </c>
@@ -11029,7 +11179,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>451</v>
       </c>
@@ -11046,7 +11196,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>453</v>
       </c>
@@ -11063,7 +11213,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>455</v>
       </c>
@@ -11080,7 +11230,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>457</v>
       </c>
@@ -11097,7 +11247,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>459</v>
       </c>
@@ -11114,7 +11264,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>461</v>
       </c>
@@ -11131,7 +11281,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>463</v>
       </c>
@@ -11148,7 +11298,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>465</v>
       </c>
@@ -11165,7 +11315,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>467</v>
       </c>
@@ -11182,7 +11332,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>469</v>
       </c>
@@ -11199,7 +11349,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>471</v>
       </c>
@@ -11216,7 +11366,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>473</v>
       </c>
@@ -11233,7 +11383,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>475</v>
       </c>
@@ -11250,7 +11400,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>477</v>
       </c>
@@ -11267,7 +11417,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>479</v>
       </c>
@@ -11284,7 +11434,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>481</v>
       </c>
@@ -11301,7 +11451,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>483</v>
       </c>
@@ -11318,7 +11468,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>485</v>
       </c>
@@ -11335,7 +11485,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>487</v>
       </c>
@@ -11352,7 +11502,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>489</v>
       </c>
@@ -11369,7 +11519,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>491</v>
       </c>
@@ -11386,7 +11536,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>493</v>
       </c>
@@ -11403,7 +11553,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>495</v>
       </c>
@@ -11420,7 +11570,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>497</v>
       </c>
@@ -11437,7 +11587,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>499</v>
       </c>
@@ -11454,7 +11604,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>501</v>
       </c>
@@ -11471,7 +11621,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>503</v>
       </c>
@@ -11488,7 +11638,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>505</v>
       </c>
@@ -11505,7 +11655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>507</v>
       </c>
@@ -11522,7 +11672,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>509</v>
       </c>
@@ -11539,7 +11689,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>511</v>
       </c>
@@ -11556,7 +11706,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>513</v>
       </c>
@@ -11573,7 +11723,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>515</v>
       </c>
@@ -11590,7 +11740,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>517</v>
       </c>
@@ -11607,7 +11757,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>518</v>
       </c>
@@ -11624,7 +11774,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>520</v>
       </c>
@@ -11641,7 +11791,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>522</v>
       </c>
@@ -11658,7 +11808,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>524</v>
       </c>
@@ -11675,7 +11825,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>525</v>
       </c>
@@ -11692,7 +11842,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>527</v>
       </c>
@@ -11709,7 +11859,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>529</v>
       </c>
@@ -11726,7 +11876,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>531</v>
       </c>
@@ -11743,7 +11893,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>532</v>
       </c>
@@ -11760,7 +11910,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>534</v>
       </c>
@@ -11777,7 +11927,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>536</v>
       </c>
@@ -11794,7 +11944,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>538</v>
       </c>
@@ -11811,7 +11961,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>540</v>
       </c>
@@ -11828,7 +11978,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>542</v>
       </c>
@@ -11845,7 +11995,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>544</v>
       </c>
@@ -11862,7 +12012,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>546</v>
       </c>
@@ -11879,7 +12029,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>548</v>
       </c>
@@ -11896,7 +12046,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>550</v>
       </c>
@@ -11913,7 +12063,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>552</v>
       </c>
@@ -11930,7 +12080,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>554</v>
       </c>
@@ -11947,7 +12097,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>556</v>
       </c>
@@ -11964,7 +12114,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>558</v>
       </c>
@@ -11981,7 +12131,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>560</v>
       </c>
@@ -11998,7 +12148,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>562</v>
       </c>
@@ -12015,7 +12165,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>564</v>
       </c>
@@ -12032,7 +12182,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>566</v>
       </c>
@@ -12049,7 +12199,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>568</v>
       </c>
@@ -12075,18 +12225,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01EA010-864B-8746-BF5D-2E469295667F}">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A191" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:E198"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="4" customWidth="1"/>
     <col min="3" max="5" width="42.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12103,7 +12255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>570</v>
       </c>
@@ -12120,7 +12272,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>574</v>
       </c>
@@ -12137,7 +12289,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>578</v>
       </c>
@@ -12154,7 +12306,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>580</v>
       </c>
@@ -12171,7 +12323,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>581</v>
       </c>
@@ -12188,7 +12340,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -12205,7 +12357,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -12222,7 +12374,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>585</v>
       </c>
@@ -12239,7 +12391,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>587</v>
       </c>
@@ -12256,7 +12408,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>589</v>
       </c>
@@ -12273,7 +12425,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>591</v>
       </c>
@@ -12290,7 +12442,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>593</v>
       </c>
@@ -12307,7 +12459,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>595</v>
       </c>
@@ -12324,7 +12476,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>597</v>
       </c>
@@ -12341,7 +12493,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>601</v>
       </c>
@@ -12358,7 +12510,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>605</v>
       </c>
@@ -12375,7 +12527,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>607</v>
       </c>
@@ -12392,7 +12544,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>609</v>
       </c>
@@ -12409,7 +12561,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>612</v>
       </c>
@@ -12426,7 +12578,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>613</v>
       </c>
@@ -12443,7 +12595,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>614</v>
       </c>
@@ -12460,7 +12612,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>615</v>
       </c>
@@ -12477,7 +12629,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>616</v>
       </c>
@@ -12494,7 +12646,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>619</v>
       </c>
@@ -12511,7 +12663,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>620</v>
       </c>
@@ -12528,7 +12680,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>621</v>
       </c>
@@ -12545,7 +12697,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>622</v>
       </c>
@@ -12562,7 +12714,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>623</v>
       </c>
@@ -12579,7 +12731,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>624</v>
       </c>
@@ -12596,7 +12748,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>625</v>
       </c>
@@ -12613,7 +12765,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>629</v>
       </c>
@@ -12630,7 +12782,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>630</v>
       </c>
@@ -12647,7 +12799,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>632</v>
       </c>
@@ -12664,7 +12816,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>633</v>
       </c>
@@ -12681,7 +12833,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>635</v>
       </c>
@@ -12698,7 +12850,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>636</v>
       </c>
@@ -12715,7 +12867,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>637</v>
       </c>
@@ -12732,7 +12884,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>639</v>
       </c>
@@ -12749,7 +12901,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>641</v>
       </c>
@@ -12766,7 +12918,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>643</v>
       </c>
@@ -12783,7 +12935,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>645</v>
       </c>
@@ -12800,7 +12952,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>647</v>
       </c>
@@ -12817,7 +12969,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>648</v>
       </c>
@@ -12834,7 +12986,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>25</v>
       </c>
@@ -12851,7 +13003,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>299</v>
       </c>
@@ -12868,7 +13020,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>300</v>
       </c>
@@ -12885,7 +13037,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>301</v>
       </c>
@@ -12902,7 +13054,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>302</v>
       </c>
@@ -12919,7 +13071,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>652</v>
       </c>
@@ -12936,7 +13088,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>96</v>
       </c>
@@ -12953,7 +13105,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>60</v>
       </c>
@@ -12970,7 +13122,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>654</v>
       </c>
@@ -12987,7 +13139,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>270</v>
       </c>
@@ -13004,7 +13156,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>275</v>
       </c>
@@ -13021,7 +13173,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>280</v>
       </c>
@@ -13038,7 +13190,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>285</v>
       </c>
@@ -13055,7 +13207,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>290</v>
       </c>
@@ -13072,7 +13224,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>294</v>
       </c>
@@ -13089,7 +13241,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>657</v>
       </c>
@@ -13106,7 +13258,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>659</v>
       </c>
@@ -13123,7 +13275,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>661</v>
       </c>
@@ -13140,7 +13292,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>303</v>
       </c>
@@ -13157,7 +13309,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>308</v>
       </c>
@@ -13174,7 +13326,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>309</v>
       </c>
@@ -13191,7 +13343,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>664</v>
       </c>
@@ -13208,7 +13360,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>666</v>
       </c>
@@ -13225,7 +13377,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>668</v>
       </c>
@@ -13242,7 +13394,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>669</v>
       </c>
@@ -13259,7 +13411,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>673</v>
       </c>
@@ -13276,7 +13428,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>675</v>
       </c>
@@ -13293,7 +13445,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>677</v>
       </c>
@@ -13310,7 +13462,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>679</v>
       </c>
@@ -13327,7 +13479,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>681</v>
       </c>
@@ -13344,7 +13496,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>683</v>
       </c>
@@ -13361,7 +13513,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>685</v>
       </c>
@@ -13378,7 +13530,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>687</v>
       </c>
@@ -13395,7 +13547,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>689</v>
       </c>
@@ -13412,7 +13564,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>691</v>
       </c>
@@ -13429,7 +13581,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>693</v>
       </c>
@@ -13446,7 +13598,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>695</v>
       </c>
@@ -13463,7 +13615,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>696</v>
       </c>
@@ -13480,7 +13632,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>697</v>
       </c>
@@ -13497,7 +13649,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>699</v>
       </c>
@@ -13514,7 +13666,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>701</v>
       </c>
@@ -13531,7 +13683,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>705</v>
       </c>
@@ -13548,7 +13700,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>707</v>
       </c>
@@ -13565,7 +13717,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>709</v>
       </c>
@@ -13582,7 +13734,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>314</v>
       </c>
@@ -13599,7 +13751,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>316</v>
       </c>
@@ -13616,7 +13768,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>317</v>
       </c>
@@ -13633,7 +13785,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>711</v>
       </c>
@@ -13650,7 +13802,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>323</v>
       </c>
@@ -13667,7 +13819,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>712</v>
       </c>
@@ -13684,7 +13836,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>713</v>
       </c>
@@ -13701,7 +13853,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>717</v>
       </c>
@@ -13718,7 +13870,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>348</v>
       </c>
@@ -13735,7 +13887,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>719</v>
       </c>
@@ -13752,7 +13904,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>721</v>
       </c>
@@ -13769,7 +13921,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>319</v>
       </c>
@@ -13786,7 +13938,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>321</v>
       </c>
@@ -13803,7 +13955,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>722</v>
       </c>
@@ -13820,7 +13972,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>325</v>
       </c>
@@ -13837,7 +13989,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>327</v>
       </c>
@@ -13854,7 +14006,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>329</v>
       </c>
@@ -13871,7 +14023,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>331</v>
       </c>
@@ -13888,7 +14040,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>333</v>
       </c>
@@ -13905,7 +14057,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>335</v>
       </c>
@@ -13922,7 +14074,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -13939,7 +14091,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>338</v>
       </c>
@@ -13956,7 +14108,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>340</v>
       </c>
@@ -13973,7 +14125,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>342</v>
       </c>
@@ -13990,7 +14142,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>344</v>
       </c>
@@ -14007,7 +14159,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>346</v>
       </c>
@@ -14024,7 +14176,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>731</v>
       </c>
@@ -14041,7 +14193,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>733</v>
       </c>
@@ -14058,7 +14210,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>735</v>
       </c>
@@ -14075,7 +14227,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>737</v>
       </c>
@@ -14092,7 +14244,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>739</v>
       </c>
@@ -14109,7 +14261,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>743</v>
       </c>
@@ -14126,7 +14278,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>745</v>
       </c>
@@ -14143,7 +14295,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>748</v>
       </c>
@@ -14160,7 +14312,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>750</v>
       </c>
@@ -14177,7 +14329,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>752</v>
       </c>
@@ -14194,7 +14346,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>350</v>
       </c>
@@ -14211,7 +14363,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>352</v>
       </c>
@@ -14228,7 +14380,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>354</v>
       </c>
@@ -14245,7 +14397,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>359</v>
       </c>
@@ -14262,7 +14414,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>364</v>
       </c>
@@ -14279,7 +14431,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>366</v>
       </c>
@@ -14296,7 +14448,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>367</v>
       </c>
@@ -14313,7 +14465,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>368</v>
       </c>
@@ -14330,7 +14482,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>369</v>
       </c>
@@ -14347,7 +14499,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>370</v>
       </c>
@@ -14364,7 +14516,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>372</v>
       </c>
@@ -14381,7 +14533,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>754</v>
       </c>
@@ -14398,7 +14550,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>755</v>
       </c>
@@ -14415,7 +14567,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>757</v>
       </c>
@@ -14432,7 +14584,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>758</v>
       </c>
@@ -14449,7 +14601,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>760</v>
       </c>
@@ -14466,7 +14618,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>762</v>
       </c>
@@ -14483,7 +14635,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>764</v>
       </c>
@@ -14500,7 +14652,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>766</v>
       </c>
@@ -14517,7 +14669,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>768</v>
       </c>
@@ -14534,7 +14686,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>374</v>
       </c>
@@ -14551,7 +14703,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>770</v>
       </c>
@@ -14568,7 +14720,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>772</v>
       </c>
@@ -14585,7 +14737,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>773</v>
       </c>
@@ -14602,7 +14754,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>775</v>
       </c>
@@ -14619,7 +14771,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>777</v>
       </c>
@@ -14636,7 +14788,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>779</v>
       </c>
@@ -14653,7 +14805,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>781</v>
       </c>
@@ -14670,7 +14822,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>782</v>
       </c>
@@ -14687,7 +14839,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>784</v>
       </c>
@@ -14704,7 +14856,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>786</v>
       </c>
@@ -14721,7 +14873,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>379</v>
       </c>
@@ -14738,7 +14890,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>381</v>
       </c>
@@ -14755,7 +14907,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>788</v>
       </c>
@@ -14772,7 +14924,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>789</v>
       </c>
@@ -14789,7 +14941,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>791</v>
       </c>
@@ -14806,7 +14958,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>382</v>
       </c>
@@ -14823,7 +14975,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>384</v>
       </c>
@@ -14840,7 +14992,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>386</v>
       </c>
@@ -14857,7 +15009,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>388</v>
       </c>
@@ -14874,7 +15026,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
         <v>390</v>
       </c>
@@ -14891,7 +15043,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>392</v>
       </c>
@@ -14908,7 +15060,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
         <v>394</v>
       </c>
@@ -14925,7 +15077,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>396</v>
       </c>
@@ -14942,7 +15094,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>398</v>
       </c>
@@ -14959,7 +15111,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>794</v>
       </c>
@@ -14976,7 +15128,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>796</v>
       </c>
@@ -14993,7 +15145,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>798</v>
       </c>
@@ -15010,7 +15162,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>800</v>
       </c>
@@ -15027,7 +15179,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>801</v>
       </c>
@@ -15044,7 +15196,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>803</v>
       </c>
@@ -15061,7 +15213,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>804</v>
       </c>
@@ -15078,7 +15230,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>806</v>
       </c>
@@ -15095,7 +15247,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>400</v>
       </c>
@@ -15112,7 +15264,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>402</v>
       </c>
@@ -15129,7 +15281,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>404</v>
       </c>
@@ -15146,7 +15298,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>409</v>
       </c>
@@ -15163,7 +15315,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>413</v>
       </c>
@@ -15180,7 +15332,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>415</v>
       </c>
@@ -15197,7 +15349,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>420</v>
       </c>
@@ -15214,7 +15366,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>422</v>
       </c>
@@ -15231,7 +15383,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>808</v>
       </c>
@@ -15248,7 +15400,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>424</v>
       </c>
@@ -15265,7 +15417,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>426</v>
       </c>
@@ -15282,7 +15434,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>427</v>
       </c>
@@ -15299,7 +15451,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>429</v>
       </c>
@@ -15316,7 +15468,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>430</v>
       </c>
@@ -15333,7 +15485,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>811</v>
       </c>
@@ -15350,7 +15502,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>812</v>
       </c>
@@ -15367,7 +15519,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>814</v>
       </c>
@@ -15384,7 +15536,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>816</v>
       </c>
@@ -15399,6 +15551,57 @@
       </c>
       <c r="E195" s="8" t="s">
         <v>1501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -15417,13 +15620,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="2" max="5" width="34.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15440,7 +15643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>818</v>
       </c>
@@ -15457,7 +15660,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>820</v>
       </c>
@@ -15474,7 +15677,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>822</v>
       </c>
@@ -15491,7 +15694,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>824</v>
       </c>
@@ -15508,7 +15711,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>826</v>
       </c>
@@ -15525,7 +15728,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>828</v>
       </c>
@@ -15542,7 +15745,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>830</v>
       </c>
@@ -15559,7 +15762,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>832</v>
       </c>
@@ -15576,7 +15779,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>834</v>
       </c>
@@ -15593,7 +15796,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>836</v>
       </c>
@@ -15610,7 +15813,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>838</v>
       </c>
@@ -15634,6 +15837,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
+      <UserInfo>
+        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
+        <AccountId>180</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
+        <AccountId>212</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004BF2CC58B4B21249B9847CAE6C292121" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20382285bea758b172f195e70f01161d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07d4ffe0-35c4-4630-b07d-57ff54db67ac" xmlns:ns3="3a79588a-61f1-49eb-bf82-c7b2c97b1d12" xmlns:ns4="5e13aadc-de86-43ee-b386-40c01ba74c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6472e07e44c21502ea15ef197acea5c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
@@ -15887,39 +16122,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
+    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
+    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
-      <UserInfo>
-        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
-        <AccountId>180</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
-        <AccountId>212</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63CBD55-76B1-4172-879F-D383FAB08852}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15937,30 +16166,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
-    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
-    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/R/translations.xlsx
+++ b/src/R/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{E268F6A5-D1D6-2040-86D4-1269D3F517FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7F11CA3-905B-48AF-A7DC-EC44D43C9FAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1676">
   <si>
     <t>LABEL</t>
   </si>
@@ -7392,12 +7392,6 @@
     <t>Reporta casos sospechosos</t>
   </si>
   <si>
-    <t>Reports suspicious cases</t>
-  </si>
-  <si>
-    <t>Relata casos suspeitos</t>
-  </si>
-  <si>
     <t>Signale des cas suspects</t>
   </si>
   <si>
@@ -7432,6 +7426,15 @@
   </si>
   <si>
     <t>Pourcentage des municipalités silencieuses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report suspected cases </t>
+  </si>
+  <si>
+    <t>Notifica casos suspeitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports suspected cases </t>
   </si>
 </sst>
 </file>
@@ -7563,7 +7566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7588,14 +7591,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7603,20 +7600,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7985,8 +7985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8000,7 +8000,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -8082,10 +8082,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -8094,15 +8094,15 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -8111,15 +8111,15 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -8128,15 +8128,15 @@
       <c r="D8" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -8145,15 +8145,15 @@
       <c r="D9" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -8162,15 +8162,15 @@
       <c r="D10" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -8179,41 +8179,41 @@
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>846</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>1146</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>847</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>952</v>
       </c>
     </row>
@@ -8286,10 +8286,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -8298,15 +8298,15 @@
       <c r="D18" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -8315,15 +8315,15 @@
       <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="3" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -8332,15 +8332,15 @@
       <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="3" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -8349,15 +8349,15 @@
       <c r="D21" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="3" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -8366,15 +8366,15 @@
       <c r="D22" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="3" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -8383,7 +8383,7 @@
       <c r="D23" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="3" t="s">
         <v>958</v>
       </c>
     </row>
@@ -8405,10 +8405,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -8417,15 +8417,15 @@
       <c r="D25" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -8434,15 +8434,15 @@
       <c r="D26" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="3" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -8451,117 +8451,117 @@
       <c r="D27" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="4" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="4" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="93" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="12" t="s">
         <v>1067</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="3" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="3" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="93" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="3" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="220" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="3" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="3" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -8570,15 +8570,15 @@
       <c r="D34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -8587,15 +8587,15 @@
       <c r="D35" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="3" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -8604,15 +8604,15 @@
       <c r="D36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="3" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -8621,15 +8621,15 @@
       <c r="D37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -8638,15 +8638,15 @@
       <c r="D38" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -8655,15 +8655,15 @@
       <c r="D39" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -8672,15 +8672,15 @@
       <c r="D40" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="3" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -8689,15 +8689,15 @@
       <c r="D41" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="3" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="17" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -8706,15 +8706,15 @@
       <c r="D42" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -8723,15 +8723,15 @@
       <c r="D43" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="3" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -8740,15 +8740,15 @@
       <c r="D44" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="3" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -8757,7 +8757,7 @@
       <c r="D45" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="3" t="s">
         <v>977</v>
       </c>
     </row>
@@ -8779,10 +8779,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="A47" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -8791,15 +8791,15 @@
       <c r="D47" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="3" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="A48" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -8808,7 +8808,7 @@
       <c r="D48" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="3" t="s">
         <v>979</v>
       </c>
     </row>
@@ -8881,138 +8881,138 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="A53" t="s">
         <v>147</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="3" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
+      <c r="A54" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="3" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+      <c r="A55" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>877</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="3" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+      <c r="A56" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="3" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+      <c r="A57" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="3" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
+      <c r="A58" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="3" t="s">
         <v>1089</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="3" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="A59" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="3" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>1655</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>1656</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="3" t="s">
         <v>1657</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="3" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -9034,36 +9034,36 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+      <c r="A62" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="3" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+      <c r="A63" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="3" t="s">
         <v>988</v>
       </c>
     </row>
@@ -9153,10 +9153,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="7" t="s">
+      <c r="A69" t="s">
         <v>195</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="17" t="s">
         <v>196</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -9165,15 +9165,15 @@
       <c r="D69" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="3" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
+      <c r="A70" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -9182,15 +9182,15 @@
       <c r="D70" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="3" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+      <c r="A71" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -9199,15 +9199,15 @@
       <c r="D71" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="3" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
+      <c r="A72" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -9216,15 +9216,15 @@
       <c r="D72" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="3" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
+      <c r="A73" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -9233,15 +9233,15 @@
       <c r="D73" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="3" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+      <c r="A74" t="s">
         <v>205</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="17" t="s">
         <v>206</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -9250,15 +9250,15 @@
       <c r="D74" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="3" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+      <c r="A75" t="s">
         <v>207</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -9267,15 +9267,15 @@
       <c r="D75" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="3" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
+      <c r="A76" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -9284,15 +9284,15 @@
       <c r="D76" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="3" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
+      <c r="A77" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -9301,15 +9301,15 @@
       <c r="D77" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="3" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+      <c r="A78" t="s">
         <v>213</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C78" s="15" t="s">
@@ -9318,15 +9318,15 @@
       <c r="D78" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="3" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+      <c r="A79" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C79" s="15" t="s">
@@ -9335,15 +9335,15 @@
       <c r="D79" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="3" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+      <c r="A80" t="s">
         <v>217</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C80" s="15" t="s">
@@ -9352,15 +9352,15 @@
       <c r="D80" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
+      <c r="A81" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -9369,7 +9369,7 @@
       <c r="D81" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="3" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -9391,10 +9391,10 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
+      <c r="A83" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -9403,15 +9403,15 @@
       <c r="D83" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="3" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+      <c r="A84" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C84" s="15" t="s">
@@ -9420,7 +9420,7 @@
       <c r="D84" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -9459,19 +9459,19 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+      <c r="A87" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="3" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -9493,10 +9493,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
+      <c r="A89" t="s">
         <v>246</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -9505,15 +9505,15 @@
       <c r="D89" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
+      <c r="A90" t="s">
         <v>248</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C90" s="15" t="s">
@@ -9522,15 +9522,15 @@
       <c r="D90" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="3" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="A91" t="s">
         <v>250</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -9539,15 +9539,15 @@
       <c r="D91" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="3" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
+      <c r="A92" t="s">
         <v>252</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C92" s="15" t="s">
@@ -9556,15 +9556,15 @@
       <c r="D92" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="3" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="A93" t="s">
         <v>254</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -9573,15 +9573,15 @@
       <c r="D93" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="7" t="s">
+      <c r="A94" t="s">
         <v>255</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C94" s="15" t="s">
@@ -9590,15 +9590,15 @@
       <c r="D94" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="7" t="s">
+      <c r="A95" t="s">
         <v>256</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -9607,15 +9607,15 @@
       <c r="D95" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="A96" t="s">
         <v>258</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C96" s="15" t="s">
@@ -9624,15 +9624,15 @@
       <c r="D96" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="3" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+      <c r="A97" t="s">
         <v>260</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -9641,15 +9641,15 @@
       <c r="D97" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="3" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+      <c r="A98" t="s">
         <v>262</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C98" s="15" t="s">
@@ -9658,15 +9658,15 @@
       <c r="D98" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="3" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+      <c r="A99" t="s">
         <v>264</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C99" s="15" t="s">
@@ -9675,15 +9675,15 @@
       <c r="D99" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="3" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
+      <c r="A100" t="s">
         <v>266</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C100" s="15" t="s">
@@ -9692,15 +9692,15 @@
       <c r="D100" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="3" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="A101" t="s">
         <v>268</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -9709,24 +9709,24 @@
       <c r="D101" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
+      <c r="A102" t="s">
         <v>269</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="3" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -9952,19 +9952,19 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+      <c r="A116" t="s">
         <v>314</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" t="s">
         <v>1083</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -9986,10 +9986,10 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+      <c r="A118" t="s">
         <v>317</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C118" s="15" t="s">
@@ -9998,15 +9998,15 @@
       <c r="D118" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+      <c r="A119" t="s">
         <v>319</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -10015,15 +10015,15 @@
       <c r="D119" t="s">
         <v>1117</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+      <c r="A120" t="s">
         <v>321</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C120" s="15" t="s">
@@ -10032,15 +10032,15 @@
       <c r="D120" t="s">
         <v>1118</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
+      <c r="A121" t="s">
         <v>323</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -10049,15 +10049,15 @@
       <c r="D121" t="s">
         <v>324</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+      <c r="A122" t="s">
         <v>325</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="4" t="s">
         <v>326</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -10066,15 +10066,15 @@
       <c r="D122" t="s">
         <v>1119</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="3" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+      <c r="A123" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C123" s="15" t="s">
@@ -10083,15 +10083,15 @@
       <c r="D123" t="s">
         <v>728</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="3" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
+      <c r="A124" t="s">
         <v>329</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="4" t="s">
         <v>330</v>
       </c>
       <c r="C124" s="15" t="s">
@@ -10100,15 +10100,15 @@
       <c r="D124" t="s">
         <v>1120</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="3" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
+      <c r="A125" t="s">
         <v>331</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="4" t="s">
         <v>332</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -10117,15 +10117,15 @@
       <c r="D125" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
+      <c r="A126" t="s">
         <v>333</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C126" s="15" t="s">
@@ -10134,15 +10134,15 @@
       <c r="D126" t="s">
         <v>1085</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="3" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
+      <c r="A127" t="s">
         <v>335</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C127" s="15" t="s">
@@ -10151,15 +10151,15 @@
       <c r="D127" t="s">
         <v>1122</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="7" t="s">
+      <c r="A128" t="s">
         <v>337</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C128" s="15" t="s">
@@ -10168,15 +10168,15 @@
       <c r="D128" t="s">
         <v>1118</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+      <c r="A129" t="s">
         <v>338</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -10185,15 +10185,15 @@
       <c r="D129" t="s">
         <v>1123</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="7" t="s">
+      <c r="A130" t="s">
         <v>340</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C130" s="15" t="s">
@@ -10202,15 +10202,15 @@
       <c r="D130" t="s">
         <v>341</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="7" t="s">
+      <c r="A131" t="s">
         <v>342</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C131" s="15" t="s">
@@ -10219,15 +10219,15 @@
       <c r="D131" t="s">
         <v>1124</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E131" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A132" s="7" t="s">
+      <c r="A132" t="s">
         <v>344</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C132" s="15" t="s">
@@ -10236,15 +10236,15 @@
       <c r="D132" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="7" t="s">
+      <c r="A133" t="s">
         <v>346</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -10253,15 +10253,15 @@
       <c r="D133" t="s">
         <v>1126</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
+      <c r="A134" t="s">
         <v>348</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C134" s="15" t="s">
@@ -10270,15 +10270,15 @@
       <c r="D134" t="s">
         <v>1127</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+      <c r="A135" t="s">
         <v>350</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C135" s="15" t="s">
@@ -10287,15 +10287,15 @@
       <c r="D135" t="s">
         <v>1128</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="7" t="s">
+      <c r="A136" t="s">
         <v>352</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C136" s="15" t="s">
@@ -10304,7 +10304,7 @@
       <c r="D136" t="s">
         <v>1129</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="3" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -10343,19 +10343,19 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
+      <c r="A139" t="s">
         <v>364</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="3" t="s">
         <v>883</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="3" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -10428,10 +10428,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+      <c r="A144" t="s">
         <v>370</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C144" s="15" t="s">
@@ -10440,15 +10440,15 @@
       <c r="D144" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="7" t="s">
+      <c r="A145" t="s">
         <v>372</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C145" s="15" t="s">
@@ -10457,7 +10457,7 @@
       <c r="D145" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -10479,10 +10479,10 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="7" t="s">
+      <c r="A147" t="s">
         <v>379</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -10491,7 +10491,7 @@
       <c r="D147" t="s">
         <v>1130</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E147" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -10513,10 +10513,10 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="7" t="s">
+      <c r="A149" t="s">
         <v>382</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="4" t="s">
         <v>383</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -10525,15 +10525,15 @@
       <c r="D149" t="s">
         <v>1131</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="3" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="7" t="s">
+      <c r="A150" t="s">
         <v>384</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C150" s="15" t="s">
@@ -10542,15 +10542,15 @@
       <c r="D150" t="s">
         <v>1132</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
+      <c r="A151" t="s">
         <v>386</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -10559,15 +10559,15 @@
       <c r="D151" t="s">
         <v>1133</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="7" t="s">
+      <c r="A152" t="s">
         <v>388</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C152" s="15" t="s">
@@ -10576,15 +10576,15 @@
       <c r="D152" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+      <c r="A153" t="s">
         <v>390</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C153" s="15" t="s">
@@ -10593,15 +10593,15 @@
       <c r="D153" t="s">
         <v>1135</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="7" t="s">
+      <c r="A154" t="s">
         <v>392</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C154" s="15" t="s">
@@ -10610,15 +10610,15 @@
       <c r="D154" t="s">
         <v>1136</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+      <c r="A155" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C155" s="15" t="s">
@@ -10627,15 +10627,15 @@
       <c r="D155" t="s">
         <v>1137</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+      <c r="A156" t="s">
         <v>396</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C156" s="15" t="s">
@@ -10644,15 +10644,15 @@
       <c r="D156" t="s">
         <v>1138</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
+      <c r="A157" t="s">
         <v>398</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -10661,15 +10661,15 @@
       <c r="D157" t="s">
         <v>1139</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="7" t="s">
+      <c r="A158" t="s">
         <v>400</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C158" s="15" t="s">
@@ -10678,15 +10678,15 @@
       <c r="D158" t="s">
         <v>401</v>
       </c>
-      <c r="E158" s="8" t="s">
+      <c r="E158" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
+      <c r="A159" t="s">
         <v>402</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -10695,7 +10695,7 @@
       <c r="D159" t="s">
         <v>1140</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -10734,10 +10734,10 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
+      <c r="A162" t="s">
         <v>413</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="4" t="s">
         <v>414</v>
       </c>
       <c r="C162" s="15" t="s">
@@ -10746,7 +10746,7 @@
       <c r="D162" t="s">
         <v>1141</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -10768,10 +10768,10 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
+      <c r="A164" t="s">
         <v>420</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C164" s="15" t="s">
@@ -10780,15 +10780,15 @@
       <c r="D164" t="s">
         <v>1142</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+      <c r="A165" t="s">
         <v>422</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C165" s="15" t="s">
@@ -10797,15 +10797,15 @@
       <c r="D165" t="s">
         <v>1143</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="3" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+      <c r="A166" t="s">
         <v>424</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C166" s="15" t="s">
@@ -10814,15 +10814,15 @@
       <c r="D166" t="s">
         <v>1144</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E166" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
+      <c r="A167" t="s">
         <v>426</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C167" s="15" t="s">
@@ -10831,15 +10831,15 @@
       <c r="D167" t="s">
         <v>1142</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
+      <c r="A168" t="s">
         <v>427</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="4" t="s">
         <v>428</v>
       </c>
       <c r="C168" s="15" t="s">
@@ -10848,15 +10848,15 @@
       <c r="D168" t="s">
         <v>1145</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
+      <c r="A169" t="s">
         <v>429</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -10865,15 +10865,15 @@
       <c r="D169" t="s">
         <v>401</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
+      <c r="A170" t="s">
         <v>430</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C170" s="15" t="s">
@@ -10882,24 +10882,24 @@
       <c r="D170" t="s">
         <v>1140</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="A171" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="8" t="s">
         <v>1656</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="7" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -10907,51 +10907,51 @@
       <c r="A172" s="7" t="s">
         <v>1659</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="8" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E172" s="7" t="s">
         <v>1661</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>1664</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="D173" s="7" t="s">
         <v>1665</v>
       </c>
-      <c r="C173" t="s">
+      <c r="E173" s="7" t="s">
         <v>1666</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>1670</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="D174" s="7" t="s">
         <v>1671</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="E174" s="7" t="s">
         <v>1672</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1674</v>
       </c>
     </row>
   </sheetData>
@@ -10966,7 +10966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5FF65-00C6-6F47-9553-2E4604D763C3}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A57" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10979,7 +10979,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -10999,7 +10999,7 @@
       <c r="B2" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1147</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -11016,7 +11016,7 @@
       <c r="B3" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>1148</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -11033,7 +11033,7 @@
       <c r="B4" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>406</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -11050,7 +11050,7 @@
       <c r="B5" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>410</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -11067,7 +11067,7 @@
       <c r="B6" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>438</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -11084,7 +11084,7 @@
       <c r="B7" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>1149</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -11101,7 +11101,7 @@
       <c r="B8" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="14" t="s">
         <v>442</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -11118,7 +11118,7 @@
       <c r="B9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>1150</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -11135,7 +11135,7 @@
       <c r="B10" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>1151</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -11152,7 +11152,7 @@
       <c r="B11" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>1152</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -11169,7 +11169,7 @@
       <c r="B12" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>1153</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -11186,7 +11186,7 @@
       <c r="B13" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>1154</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -11203,7 +11203,7 @@
       <c r="B14" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>1155</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -11220,7 +11220,7 @@
       <c r="B15" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>1156</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -11237,7 +11237,7 @@
       <c r="B16" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>1157</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -11254,7 +11254,7 @@
       <c r="B17" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>1158</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -11271,7 +11271,7 @@
       <c r="B18" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>1159</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -11288,7 +11288,7 @@
       <c r="B19" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>1160</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -11305,7 +11305,7 @@
       <c r="B20" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>1161</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -11322,7 +11322,7 @@
       <c r="B21" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>1162</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -11339,7 +11339,7 @@
       <c r="B22" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>1163</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -11356,7 +11356,7 @@
       <c r="B23" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>1164</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -11373,7 +11373,7 @@
       <c r="B24" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>1165</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -11390,7 +11390,7 @@
       <c r="B25" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>1166</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -11407,7 +11407,7 @@
       <c r="B26" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>1167</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -11424,7 +11424,7 @@
       <c r="B27" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>1168</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -11441,7 +11441,7 @@
       <c r="B28" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>1169</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -11458,7 +11458,7 @@
       <c r="B29" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>484</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -11475,7 +11475,7 @@
       <c r="B30" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>1170</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -11492,7 +11492,7 @@
       <c r="B31" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>1171</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -11509,7 +11509,7 @@
       <c r="B32" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>1172</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -11526,7 +11526,7 @@
       <c r="B33" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>1173</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -11543,7 +11543,7 @@
       <c r="B34" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>1174</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -11560,7 +11560,7 @@
       <c r="B35" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="13" t="s">
         <v>1175</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -11577,7 +11577,7 @@
       <c r="B36" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>1176</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -11591,10 +11591,10 @@
       <c r="A37" t="s">
         <v>499</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="13" t="s">
         <v>1177</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -11611,7 +11611,7 @@
       <c r="B38" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>1178</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -11628,7 +11628,7 @@
       <c r="B39" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="13" t="s">
         <v>1179</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -11645,7 +11645,7 @@
       <c r="B40" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>1180</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -11662,7 +11662,7 @@
       <c r="B41" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="13" t="s">
         <v>598</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -11679,7 +11679,7 @@
       <c r="B42" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>602</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -11696,7 +11696,7 @@
       <c r="B43" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="13" t="s">
         <v>1181</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -11713,7 +11713,7 @@
       <c r="B44" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>1182</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -11730,7 +11730,7 @@
       <c r="B45" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="13" t="s">
         <v>1183</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -11747,7 +11747,7 @@
       <c r="B46" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>1184</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -11764,7 +11764,7 @@
       <c r="B47" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="13" t="s">
         <v>1185</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -11781,7 +11781,7 @@
       <c r="B48" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>1186</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -11798,7 +11798,7 @@
       <c r="B49" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="13" t="s">
         <v>1187</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -11815,7 +11815,7 @@
       <c r="B50" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="13" t="s">
         <v>1188</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -11832,7 +11832,7 @@
       <c r="B51" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="13" t="s">
         <v>1189</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -11849,7 +11849,7 @@
       <c r="B52" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="13" t="s">
         <v>1190</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -11866,7 +11866,7 @@
       <c r="B53" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="13" t="s">
         <v>1191</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -11883,7 +11883,7 @@
       <c r="B54" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="13" t="s">
         <v>438</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -11900,7 +11900,7 @@
       <c r="B55" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="13" t="s">
         <v>1192</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -11917,7 +11917,7 @@
       <c r="B56" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="13" t="s">
         <v>1193</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -11934,7 +11934,7 @@
       <c r="B57" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="13" t="s">
         <v>1194</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -11951,7 +11951,7 @@
       <c r="B58" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="13" t="s">
         <v>1195</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -11968,7 +11968,7 @@
       <c r="B59" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="13" t="s">
         <v>1196</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -11985,7 +11985,7 @@
       <c r="B60" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="13" t="s">
         <v>1197</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -11999,10 +11999,10 @@
       <c r="A61" t="s">
         <v>544</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="13" t="s">
         <v>1198</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -12019,7 +12019,7 @@
       <c r="B62" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="13" t="s">
         <v>1199</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -12033,10 +12033,10 @@
       <c r="A63" t="s">
         <v>548</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="13" t="s">
         <v>1200</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -12053,7 +12053,7 @@
       <c r="B64" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="13" t="s">
         <v>1201</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -12070,7 +12070,7 @@
       <c r="B65" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="13" t="s">
         <v>1202</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -12087,7 +12087,7 @@
       <c r="B66" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="13" t="s">
         <v>1203</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -12104,7 +12104,7 @@
       <c r="B67" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="13" t="s">
         <v>1204</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -12121,7 +12121,7 @@
       <c r="B68" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="13" t="s">
         <v>1205</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -12138,7 +12138,7 @@
       <c r="B69" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="13" t="s">
         <v>1206</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -12155,7 +12155,7 @@
       <c r="B70" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="13" t="s">
         <v>1207</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -12172,7 +12172,7 @@
       <c r="B71" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="13" t="s">
         <v>1208</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -12189,7 +12189,7 @@
       <c r="B72" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="13" t="s">
         <v>1209</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -12206,7 +12206,7 @@
       <c r="B73" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="13" t="s">
         <v>1210</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -12227,8 +12227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01EA010-864B-8746-BF5D-2E469295667F}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196:E198"/>
+    <sheetView topLeftCell="A186" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12242,7 +12242,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -12279,7 +12279,7 @@
       <c r="B3" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>576</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -12290,19 +12290,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>578</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>1211</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="3" t="s">
         <v>1372</v>
       </c>
     </row>
@@ -12313,7 +12313,7 @@
       <c r="B5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>223</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -12330,7 +12330,7 @@
       <c r="B6" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>583</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -12347,7 +12347,7 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -12364,7 +12364,7 @@
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -12375,104 +12375,104 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>585</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>1212</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>1575</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>587</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>1213</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>589</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>1214</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>1577</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>591</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>1215</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>1578</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>593</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>1216</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>595</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>1217</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -12483,7 +12483,7 @@
       <c r="B15" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>598</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -12500,7 +12500,7 @@
       <c r="B16" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>602</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -12511,36 +12511,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>605</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>1218</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>1580</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="3" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>607</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>608</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>1219</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="3" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       <c r="B19" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>1220</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -12568,7 +12568,7 @@
       <c r="B20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>1180</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -12585,7 +12585,7 @@
       <c r="B21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>1221</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -12602,7 +12602,7 @@
       <c r="B22" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>1184</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -12619,7 +12619,7 @@
       <c r="B23" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>1222</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -12636,7 +12636,7 @@
       <c r="B24" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>1205</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -12653,7 +12653,7 @@
       <c r="B25" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>1220</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -12670,7 +12670,7 @@
       <c r="B26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>1180</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -12687,7 +12687,7 @@
       <c r="B27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>1221</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -12704,7 +12704,7 @@
       <c r="B28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>1184</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -12721,7 +12721,7 @@
       <c r="B29" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>1222</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -12738,7 +12738,7 @@
       <c r="B30" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>1205</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -12755,7 +12755,7 @@
       <c r="B31" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>627</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -12772,7 +12772,7 @@
       <c r="B32" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>583</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -12783,19 +12783,19 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>630</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="4" t="s">
         <v>631</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>1223</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="3" t="s">
         <v>1581</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="3" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -12806,7 +12806,7 @@
       <c r="B34" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -12817,19 +12817,19 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>633</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>634</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>1224</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="3" t="s">
         <v>1582</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="3" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -12840,7 +12840,7 @@
       <c r="B36" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -12857,7 +12857,7 @@
       <c r="B37" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -12868,87 +12868,87 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>637</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>638</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>1225</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="3" t="s">
         <v>1583</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="3" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>639</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>640</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>1226</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="3" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>641</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>642</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>1227</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="3" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>643</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>644</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>1228</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="3" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>645</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="4" t="s">
         <v>646</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>1229</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="3" t="s">
         <v>1585</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="3" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -12959,7 +12959,7 @@
       <c r="B43" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="13" t="s">
         <v>647</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -12976,7 +12976,7 @@
       <c r="B44" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>650</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -12987,19 +12987,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="3" t="s">
         <v>945</v>
       </c>
     </row>
@@ -13010,7 +13010,7 @@
       <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -13027,7 +13027,7 @@
       <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -13044,7 +13044,7 @@
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -13061,7 +13061,7 @@
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -13072,70 +13072,70 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="A50" t="s">
         <v>652</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="4" t="s">
         <v>653</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>1230</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="3" t="s">
         <v>1586</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="3" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
+      <c r="A51" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="3" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="7" t="s">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="3" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="A53" t="s">
         <v>654</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="3" t="s">
         <v>958</v>
       </c>
     </row>
@@ -13146,7 +13146,7 @@
       <c r="B54" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="13" t="s">
         <v>272</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -13163,7 +13163,7 @@
       <c r="B55" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="13" t="s">
         <v>277</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -13180,7 +13180,7 @@
       <c r="B56" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="13" t="s">
         <v>282</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -13197,7 +13197,7 @@
       <c r="B57" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="13" t="s">
         <v>287</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -13214,7 +13214,7 @@
       <c r="B58" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="13" t="s">
         <v>292</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -13231,7 +13231,7 @@
       <c r="B59" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="13" t="s">
         <v>1231</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -13242,53 +13242,53 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+      <c r="A60" t="s">
         <v>657</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="4" t="s">
         <v>658</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>1232</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="3" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
+      <c r="A61" t="s">
         <v>659</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="4" t="s">
         <v>660</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>1233</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="3" t="s">
         <v>1588</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="3" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+      <c r="A62" t="s">
         <v>661</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="4" t="s">
         <v>662</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>1234</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="3" t="s">
         <v>1419</v>
       </c>
     </row>
@@ -13299,7 +13299,7 @@
       <c r="B63" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -13310,19 +13310,19 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
+      <c r="A64" t="s">
         <v>308</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="4" t="s">
         <v>663</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>1235</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="3" t="s">
         <v>1589</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="3" t="s">
         <v>1420</v>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       <c r="B65" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -13344,36 +13344,36 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="7" t="s">
+      <c r="A66" t="s">
         <v>664</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="4" t="s">
         <v>665</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>1236</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="3" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+      <c r="A67" t="s">
         <v>666</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="4" t="s">
         <v>667</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>1237</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="3" t="s">
         <v>1422</v>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
       <c r="B68" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="13" t="s">
         <v>583</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -13401,7 +13401,7 @@
       <c r="B69" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="13" t="s">
         <v>671</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -13412,189 +13412,189 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
+      <c r="A70" t="s">
         <v>673</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="4" t="s">
         <v>674</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>1238</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="3" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+      <c r="A71" t="s">
         <v>675</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="4" t="s">
         <v>676</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>1239</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="3" t="s">
         <v>1593</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="3" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
+      <c r="A72" t="s">
         <v>677</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="4" t="s">
         <v>678</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>1240</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="3" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="7" t="s">
+      <c r="A73" t="s">
         <v>679</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="4" t="s">
         <v>680</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>1241</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="3" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="7" t="s">
+      <c r="A74" t="s">
         <v>681</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="4" t="s">
         <v>682</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>1242</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="3" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
+      <c r="A75" t="s">
         <v>683</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="4" t="s">
         <v>684</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>1243</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="3" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="7" t="s">
+      <c r="A76" t="s">
         <v>685</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="4" t="s">
         <v>686</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>1244</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="3" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
+      <c r="A77" t="s">
         <v>687</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="4" t="s">
         <v>688</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>1245</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="3" t="s">
         <v>1596</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="3" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+      <c r="A78" t="s">
         <v>689</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="4" t="s">
         <v>690</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>1246</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="3" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+      <c r="A79" t="s">
         <v>691</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="4" t="s">
         <v>692</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>1247</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="3" t="s">
         <v>1598</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="3" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+      <c r="A80" t="s">
         <v>693</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="4" t="s">
         <v>694</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>1248</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="3" t="s">
         <v>1599</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="3" t="s">
         <v>1434</v>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="B81" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -13622,7 +13622,7 @@
       <c r="B82" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="13" t="s">
         <v>1249</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -13633,36 +13633,36 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
+      <c r="A83" t="s">
         <v>697</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="4" t="s">
         <v>698</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>1250</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="3" t="s">
         <v>1600</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="3" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
+      <c r="A84" t="s">
         <v>699</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="4" t="s">
         <v>700</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>1251</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="3" t="s">
         <v>1601</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="3" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
       <c r="B85" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="13" t="s">
         <v>703</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -13684,70 +13684,70 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="7" t="s">
+      <c r="A86" t="s">
         <v>705</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="4" t="s">
         <v>706</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>1252</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="3" t="s">
         <v>1602</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="3" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
+      <c r="A87" t="s">
         <v>707</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="4" t="s">
         <v>708</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>1253</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="3" t="s">
         <v>1603</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="3" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="7" t="s">
+      <c r="A88" t="s">
         <v>709</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="4" t="s">
         <v>710</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>1254</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="3" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A89" s="7" t="s">
+      <c r="A89" t="s">
         <v>314</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="3" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -13758,7 +13758,7 @@
       <c r="B90" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -13769,19 +13769,19 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A91" s="7" t="s">
+      <c r="A91" t="s">
         <v>317</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>1255</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="3" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -13792,7 +13792,7 @@
       <c r="B92" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="13" t="s">
         <v>1256</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -13803,19 +13803,19 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
+      <c r="A93" t="s">
         <v>323</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="3" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -13826,7 +13826,7 @@
       <c r="B94" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -13843,7 +13843,7 @@
       <c r="B95" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="13" t="s">
         <v>715</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -13854,121 +13854,121 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="A96" t="s">
         <v>717</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="4" t="s">
         <v>718</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>1257</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="3" t="s">
         <v>1605</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="3" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+      <c r="A97" t="s">
         <v>348</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="3" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
+      <c r="A98" t="s">
         <v>719</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="4" t="s">
         <v>720</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>1258</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="3" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+      <c r="A99" t="s">
         <v>721</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C99" s="15" t="s">
         <v>1216</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="3" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="7" t="s">
+      <c r="A100" t="s">
         <v>319</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="4" t="s">
         <v>320</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="3" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="A101" t="s">
         <v>321</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
+      <c r="A102" t="s">
         <v>722</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="4" t="s">
         <v>723</v>
       </c>
       <c r="C102" s="15" t="s">
         <v>1259</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="3" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -13979,7 +13979,7 @@
       <c r="B103" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="13" t="s">
         <v>725</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -13996,7 +13996,7 @@
       <c r="B104" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="13" t="s">
         <v>727</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -14013,7 +14013,7 @@
       <c r="B105" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="13" t="s">
         <v>915</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -14024,223 +14024,223 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A106" s="7" t="s">
+      <c r="A106" t="s">
         <v>331</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="4" t="s">
         <v>730</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>1260</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="3" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
+      <c r="A107" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="3" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
+      <c r="A108" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
+      <c r="A109" t="s">
         <v>337</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+      <c r="A110" t="s">
         <v>338</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
+      <c r="A111" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="4" t="s">
         <v>341</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
+      <c r="A112" t="s">
         <v>342</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
+      <c r="A113" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
+      <c r="A114" t="s">
         <v>346</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="4" t="s">
         <v>347</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="3" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
+      <c r="A115" t="s">
         <v>731</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="4" t="s">
         <v>732</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>1261</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="3" t="s">
         <v>1607</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="3" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="7" t="s">
+      <c r="A116" t="s">
         <v>733</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="4" t="s">
         <v>734</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>1262</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="3" t="s">
         <v>1608</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="3" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A117" s="7" t="s">
+      <c r="A117" t="s">
         <v>735</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="4" t="s">
         <v>736</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>1263</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="3" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="7" t="s">
+      <c r="A118" t="s">
         <v>737</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>1264</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="3" t="s">
         <v>1610</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="3" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -14251,7 +14251,7 @@
       <c r="B119" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="13" t="s">
         <v>741</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -14262,19 +14262,19 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
+      <c r="A120" t="s">
         <v>743</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="4" t="s">
         <v>744</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>1265</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D120" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="3" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       <c r="B121" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="13" t="s">
         <v>1266</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -14296,87 +14296,87 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
+      <c r="A122" t="s">
         <v>748</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="4" t="s">
         <v>749</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>1267</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="3" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A123" s="7" t="s">
+      <c r="A123" t="s">
         <v>750</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="4" t="s">
         <v>751</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>1268</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="3" t="s">
         <v>1613</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E123" s="3" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A124" s="7" t="s">
+      <c r="A124" t="s">
         <v>752</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="4" t="s">
         <v>753</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>1269</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="3" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="7" t="s">
+      <c r="A125" t="s">
         <v>350</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="3" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="7" t="s">
+      <c r="A126" t="s">
         <v>352</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="3" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -14387,7 +14387,7 @@
       <c r="B127" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C127" s="18" t="s">
+      <c r="C127" s="13" t="s">
         <v>356</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -14404,7 +14404,7 @@
       <c r="B128" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="13" t="s">
         <v>361</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -14415,19 +14415,19 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+      <c r="A129" t="s">
         <v>364</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E129" s="3" t="s">
         <v>988</v>
       </c>
     </row>
@@ -14438,7 +14438,7 @@
       <c r="B130" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -14455,7 +14455,7 @@
       <c r="B131" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="13" t="s">
         <v>1270</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -14472,7 +14472,7 @@
       <c r="B132" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="13" t="s">
         <v>182</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -14489,7 +14489,7 @@
       <c r="B133" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -14500,36 +14500,36 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="7" t="s">
+      <c r="A134" t="s">
         <v>370</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="3" t="s">
         <v>1615</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="3" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="7" t="s">
+      <c r="A135" t="s">
         <v>372</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="4" t="s">
         <v>373</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="3" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -14540,7 +14540,7 @@
       <c r="B136" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -14551,19 +14551,19 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="7" t="s">
+      <c r="A137" t="s">
         <v>755</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="4" t="s">
         <v>756</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>1271</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="3" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -14574,7 +14574,7 @@
       <c r="B138" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="13" t="s">
         <v>1270</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -14585,104 +14585,104 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
+      <c r="A139" t="s">
         <v>758</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="4" t="s">
         <v>759</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>1272</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D139" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="3" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
+      <c r="A140" t="s">
         <v>760</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="4" t="s">
         <v>761</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>1273</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="D140" s="3" t="s">
         <v>1619</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="3" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
+      <c r="A141" t="s">
         <v>762</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="4" t="s">
         <v>763</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>1274</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="3" t="s">
         <v>1620</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="3" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="7" t="s">
+      <c r="A142" t="s">
         <v>764</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="4" t="s">
         <v>765</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>1275</v>
       </c>
-      <c r="D142" s="8" t="s">
+      <c r="D142" s="3" t="s">
         <v>1621</v>
       </c>
-      <c r="E142" s="8" t="s">
+      <c r="E142" s="3" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="s">
+      <c r="A143" t="s">
         <v>766</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="4" t="s">
         <v>767</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>1185</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="3" t="s">
         <v>1622</v>
       </c>
-      <c r="E143" s="8" t="s">
+      <c r="E143" s="3" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+      <c r="A144" t="s">
         <v>768</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="4" t="s">
         <v>769</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>1276</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="3" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       <c r="B145" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="13" t="s">
         <v>376</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -14704,19 +14704,19 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="7" t="s">
+      <c r="A146" t="s">
         <v>770</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="4" t="s">
         <v>771</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>1277</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146" s="3" t="s">
         <v>1624</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="3" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -14727,7 +14727,7 @@
       <c r="B147" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -14738,155 +14738,155 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="7" t="s">
+      <c r="A148" t="s">
         <v>773</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="4" t="s">
         <v>774</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>1278</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D148" s="3" t="s">
         <v>1625</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E148" s="3" t="s">
         <v>1478</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="7" t="s">
+      <c r="A149" t="s">
         <v>775</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="4" t="s">
         <v>776</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>1279</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D149" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="E149" s="8" t="s">
+      <c r="E149" s="3" t="s">
         <v>1479</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="7" t="s">
+      <c r="A150" t="s">
         <v>777</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="4" t="s">
         <v>778</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>1280</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D150" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E150" s="3" t="s">
         <v>1480</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="7" t="s">
+      <c r="A151" t="s">
         <v>779</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="4" t="s">
         <v>780</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>1281</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E151" s="3" t="s">
         <v>1481</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="7" t="s">
+      <c r="A152" t="s">
         <v>781</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D152" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E152" s="8" t="s">
+      <c r="E152" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="7" t="s">
+      <c r="A153" t="s">
         <v>782</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="4" t="s">
         <v>783</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>1282</v>
       </c>
-      <c r="D153" s="8" t="s">
+      <c r="D153" s="3" t="s">
         <v>1628</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E153" s="3" t="s">
         <v>1482</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="7" t="s">
+      <c r="A154" t="s">
         <v>784</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="4" t="s">
         <v>785</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>1283</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="3" t="s">
         <v>1629</v>
       </c>
-      <c r="E154" s="8" t="s">
+      <c r="E154" s="3" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="7" t="s">
+      <c r="A155" t="s">
         <v>786</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="4" t="s">
         <v>787</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>1284</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="3" t="s">
         <v>1630</v>
       </c>
-      <c r="E155" s="8" t="s">
+      <c r="E155" s="3" t="s">
         <v>1484</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+      <c r="A156" t="s">
         <v>379</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="E156" s="8" t="s">
+      <c r="E156" s="3" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -14897,7 +14897,7 @@
       <c r="B157" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="13" t="s">
         <v>376</v>
       </c>
       <c r="D157" s="3" t="s">
@@ -14914,7 +14914,7 @@
       <c r="B158" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="13" t="s">
         <v>376</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -14925,359 +14925,359 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="7" t="s">
+      <c r="A159" t="s">
         <v>789</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="4" t="s">
         <v>790</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>1285</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="3" t="s">
         <v>1631</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="3" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
+      <c r="A160" t="s">
         <v>791</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="4" t="s">
         <v>792</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>1286</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="3" t="s">
         <v>1632</v>
       </c>
-      <c r="E160" s="8" t="s">
+      <c r="E160" s="3" t="s">
         <v>1486</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
+      <c r="A161" t="s">
         <v>382</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="4" t="s">
         <v>793</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>1287</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="3" t="s">
         <v>1633</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="3" t="s">
         <v>1487</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="7" t="s">
+      <c r="A162" t="s">
         <v>384</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="4" t="s">
         <v>385</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="3" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
+      <c r="A163" t="s">
         <v>386</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="E163" s="8" t="s">
+      <c r="E163" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A164" s="7" t="s">
+      <c r="A164" t="s">
         <v>388</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" s="7" t="s">
+      <c r="A165" t="s">
         <v>390</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="7" t="s">
+      <c r="A166" t="s">
         <v>392</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="E166" s="8" t="s">
+      <c r="E166" s="3" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
+      <c r="A167" t="s">
         <v>394</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="D167" s="8" t="s">
+      <c r="D167" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="7" t="s">
+      <c r="A168" t="s">
         <v>396</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" s="7" t="s">
+      <c r="A169" t="s">
         <v>398</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="3" t="s">
         <v>1139</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="3" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="7" t="s">
+      <c r="A170" t="s">
         <v>794</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="4" t="s">
         <v>795</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>1288</v>
       </c>
-      <c r="D170" s="8" t="s">
+      <c r="D170" s="3" t="s">
         <v>1634</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="3" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A171" s="7" t="s">
+      <c r="A171" t="s">
         <v>796</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="4" t="s">
         <v>797</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>1289</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="3" t="s">
         <v>1635</v>
       </c>
-      <c r="E171" s="8" t="s">
+      <c r="E171" s="3" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="7" t="s">
+      <c r="A172" t="s">
         <v>798</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="4" t="s">
         <v>799</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>1290</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="3" t="s">
         <v>1636</v>
       </c>
-      <c r="E172" s="8" t="s">
+      <c r="E172" s="3" t="s">
         <v>1490</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="7" t="s">
+      <c r="A173" t="s">
         <v>800</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="4" t="s">
         <v>391</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="3" t="s">
         <v>1491</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A174" s="7" t="s">
+      <c r="A174" t="s">
         <v>801</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="4" t="s">
         <v>802</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>1291</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="3" t="s">
         <v>1637</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="3" t="s">
         <v>1492</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="7" t="s">
+      <c r="A175" t="s">
         <v>803</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="4" t="s">
         <v>395</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="7" t="s">
+      <c r="A176" t="s">
         <v>804</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="4" t="s">
         <v>805</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>1292</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="3" t="s">
         <v>1638</v>
       </c>
-      <c r="E176" s="8" t="s">
+      <c r="E176" s="3" t="s">
         <v>1493</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="7" t="s">
+      <c r="A177" t="s">
         <v>806</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="4" t="s">
         <v>807</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>1293</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="3" t="s">
         <v>1639</v>
       </c>
-      <c r="E177" s="8" t="s">
+      <c r="E177" s="3" t="s">
         <v>1494</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="7" t="s">
+      <c r="A178" t="s">
         <v>400</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E178" s="8" t="s">
+      <c r="E178" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="7" t="s">
+      <c r="A179" t="s">
         <v>402</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="E179" s="8" t="s">
+      <c r="E179" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -15288,7 +15288,7 @@
       <c r="B180" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="13" t="s">
         <v>406</v>
       </c>
       <c r="D180" s="3" t="s">
@@ -15305,7 +15305,7 @@
       <c r="B181" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="13" t="s">
         <v>410</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -15316,19 +15316,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="7" t="s">
+      <c r="A182" t="s">
         <v>413</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="4" t="s">
         <v>414</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="D182" s="8" t="s">
+      <c r="D182" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="3" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -15339,7 +15339,7 @@
       <c r="B183" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="13" t="s">
         <v>1188</v>
       </c>
       <c r="D183" s="3" t="s">
@@ -15350,36 +15350,36 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
+      <c r="A184" t="s">
         <v>420</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="E184" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
+      <c r="A185" t="s">
         <v>422</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="E185" s="8" t="s">
+      <c r="E185" s="3" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -15390,7 +15390,7 @@
       <c r="B186" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="13" t="s">
         <v>1294</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -15401,172 +15401,172 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="7" t="s">
+      <c r="A187" t="s">
         <v>424</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="4" t="s">
         <v>425</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="E187" s="8" t="s">
+      <c r="E187" s="3" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" s="7" t="s">
+      <c r="A188" t="s">
         <v>426</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E188" s="8" t="s">
+      <c r="E188" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" s="7" t="s">
+      <c r="A189" t="s">
         <v>427</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="4" t="s">
         <v>428</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D189" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A190" s="7" t="s">
+      <c r="A190" t="s">
         <v>429</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D190" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E190" s="8" t="s">
+      <c r="E190" s="3" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="7" t="s">
+      <c r="A191" t="s">
         <v>430</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="4" t="s">
         <v>403</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D191" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="E191" s="3" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" s="7" t="s">
+      <c r="A192" t="s">
         <v>811</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="4" t="s">
         <v>421</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" s="7" t="s">
+      <c r="A193" t="s">
         <v>812</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="4" t="s">
         <v>813</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>1295</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193" s="3" t="s">
         <v>1640</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="E193" s="3" t="s">
         <v>1499</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="7" t="s">
+      <c r="A194" t="s">
         <v>814</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="4" t="s">
         <v>815</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>1296</v>
       </c>
-      <c r="D194" s="8" t="s">
+      <c r="D194" s="3" t="s">
         <v>1641</v>
       </c>
-      <c r="E194" s="8" t="s">
+      <c r="E194" s="3" t="s">
         <v>1500</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A195" s="7" t="s">
+      <c r="A195" t="s">
         <v>816</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="4" t="s">
         <v>817</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>1297</v>
       </c>
-      <c r="D195" s="8" t="s">
+      <c r="D195" s="3" t="s">
         <v>1642</v>
       </c>
-      <c r="E195" s="8" t="s">
+      <c r="E195" s="3" t="s">
         <v>1501</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="A196" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="8" t="s">
         <v>1656</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="7" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -15574,34 +15574,34 @@
       <c r="A197" s="7" t="s">
         <v>1659</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>1661</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1662</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>1664</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="D198" s="7" t="s">
         <v>1665</v>
       </c>
-      <c r="C198" t="s">
+      <c r="E198" s="7" t="s">
         <v>1666</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1667</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -15617,7 +15617,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -15650,7 +15650,7 @@
       <c r="B2" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1298</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -15667,7 +15667,7 @@
       <c r="B3" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>1299</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -15684,7 +15684,7 @@
       <c r="B4" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>1300</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -15701,7 +15701,7 @@
       <c r="B5" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="13" t="s">
         <v>1301</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -15718,7 +15718,7 @@
       <c r="B6" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>1302</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -15735,7 +15735,7 @@
       <c r="B7" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>1303</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -15752,7 +15752,7 @@
       <c r="B8" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="13" t="s">
         <v>1304</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -15769,7 +15769,7 @@
       <c r="B9" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="13" t="s">
         <v>1305</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -15786,7 +15786,7 @@
       <c r="B10" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>1306</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -15803,7 +15803,7 @@
       <c r="B11" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>1307</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -15820,7 +15820,7 @@
       <c r="B12" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>1308</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -15837,38 +15837,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
-      <UserInfo>
-        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
-        <AccountId>180</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
-        <AccountId>212</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004BF2CC58B4B21249B9847CAE6C292121" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20382285bea758b172f195e70f01161d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07d4ffe0-35c4-4630-b07d-57ff54db67ac" xmlns:ns3="3a79588a-61f1-49eb-bf82-c7b2c97b1d12" xmlns:ns4="5e13aadc-de86-43ee-b386-40c01ba74c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6472e07e44c21502ea15ef197acea5c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
@@ -16122,33 +16090,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
-    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
-    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
+      <UserInfo>
+        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
+        <AccountId>180</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
+        <AccountId>212</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63CBD55-76B1-4172-879F-D383FAB08852}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16166,4 +16140,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
+    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/R/translations.xlsx
+++ b/src/R/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54972D7C-A38D-4D84-A6AE-049D96D82829}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1677">
   <si>
     <t>LABEL</t>
   </si>
@@ -7435,6 +7435,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reports suspected cases </t>
+  </si>
+  <si>
+    <t>Municipios reportando casos</t>
   </si>
 </sst>
 </file>
@@ -7566,7 +7569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7617,6 +7620,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7985,8 +7991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView topLeftCell="A51" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8932,19 +8938,19 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="A56" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="8" t="s">
         <v>983</v>
       </c>
     </row>
@@ -10891,7 +10897,7 @@
         <v>1654</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>1655</v>
+        <v>1676</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>1656</v>
@@ -12227,7 +12233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01EA010-864B-8746-BF5D-2E469295667F}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
@@ -15837,6 +15843,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
+      <UserInfo>
+        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
+        <AccountId>180</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
+        <AccountId>212</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004BF2CC58B4B21249B9847CAE6C292121" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20382285bea758b172f195e70f01161d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07d4ffe0-35c4-4630-b07d-57ff54db67ac" xmlns:ns3="3a79588a-61f1-49eb-bf82-c7b2c97b1d12" xmlns:ns4="5e13aadc-de86-43ee-b386-40c01ba74c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6472e07e44c21502ea15ef197acea5c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
@@ -16090,39 +16128,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
+    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
-      <UserInfo>
-        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
-        <AccountId>180</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
-        <AccountId>212</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63CBD55-76B1-4172-879F-D383FAB08852}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16140,30 +16172,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
-    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/R/translations.xlsx
+++ b/src/R/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment-regional/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80C598F2-8506-42D2-BEBC-6F5E5825F0E4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{4649215D-82E5-4B27-B6A2-F5C81FA3C8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5DA8B7-D185-494A-886D-CEE0225760CC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="1674">
   <si>
     <t>LABEL</t>
   </si>
@@ -6924,15 +6924,9 @@
     <t>Cuando un país tiene menos de 100,000 habitantes y ha reportado al menos un caso sospechoso en el año más reciente, la herramienta asigna 0 puntos de riesgo. Si el país ha estado en silencio epidemiológico (no ha reportado ningún caso), la herramienta asignará la máxima puntuación de riesgo (8 puntos).</t>
   </si>
   <si>
-    <t>paísity</t>
-  </si>
-  <si>
     <t>paísité</t>
   </si>
   <si>
-    <t>paísities</t>
-  </si>
-  <si>
     <t>paísités</t>
   </si>
   <si>
@@ -6972,27 +6966,15 @@
     <t>Carte du risque pour les paísités à risque élevé</t>
   </si>
   <si>
-    <t>Number of paísities with population immunity</t>
-  </si>
-  <si>
     <t>Nombre de paísités en immunité de la population</t>
   </si>
   <si>
-    <t>Number of paísities under surveillance</t>
-  </si>
-  <si>
     <t>Nombre de paísités par qualité de la surveillance</t>
   </si>
   <si>
-    <t>When a paísity has fewer than 100,000 inhabitants and has reported at least one suspected case in the most recent year, the tool assigns 0 risk points.  If the paísity has been in epidemiological silence (has not reported any cases), the tool will assign the maximum risk score (8 points).</t>
-  </si>
-  <si>
     <t>Lorsqu’une paísité compte moins de 100 000 habitants et qu’elle a déclaré au moins un cas suspect au cours de l’année la plus récente, l’outil attribue 0 point de risque. Si la paísité est restée épidémiologiquement silencieuse (n’a déclaré aucun cas), l’outil attribuera l’indice de risque maximum (8 points).</t>
   </si>
   <si>
-    <t>Silent paísities</t>
-  </si>
-  <si>
     <t>paísités silencieuses</t>
   </si>
   <si>
@@ -7014,21 +6996,12 @@
     <t>Nombre de paísités en réponse rapide</t>
   </si>
   <si>
-    <t>Number of paísities</t>
-  </si>
-  <si>
     <t>Nombre de paísités</t>
   </si>
   <si>
-    <t>Number of silent paísities</t>
-  </si>
-  <si>
     <t>Nombre de paísités silencieuses</t>
   </si>
   <si>
-    <t>Percentage of silent paísities</t>
-  </si>
-  <si>
     <t>Pourcentage des paísités silencieuses</t>
   </si>
   <si>
@@ -7044,33 +7017,18 @@
     <t xml:space="preserve">Des noms au niveau país sont manquants </t>
   </si>
   <si>
-    <t>Distribution of paísities by risk classification</t>
-  </si>
-  <si>
     <t>Répartition des paísités par classification du risque</t>
   </si>
   <si>
-    <t>paísities with low risk in</t>
-  </si>
-  <si>
     <t>paísités à faible risque pour</t>
   </si>
   <si>
-    <t>paísities with medium risk in</t>
-  </si>
-  <si>
     <t>paísités à risque moyen pour</t>
   </si>
   <si>
-    <t>paísities with high risk in</t>
-  </si>
-  <si>
     <t>paísités à risque élevé pour</t>
   </si>
   <si>
-    <t>paísities with very high risk in</t>
-  </si>
-  <si>
     <t>paísités à risque très élevé pour</t>
   </si>
   <si>
@@ -7132,15 +7090,70 @@
   </si>
   <si>
     <t>Porcentaje de hospitales de nivel Subregional con personal capacitado para hacer triaje y aislar casos altamente sospechosos de sarampión o rubéola</t>
+  </si>
+  <si>
+    <t>Distribution of countries by risk classification</t>
+  </si>
+  <si>
+    <t>Countries with low risk in</t>
+  </si>
+  <si>
+    <t>Countries with medium risk in</t>
+  </si>
+  <si>
+    <t>Countries with high risk in</t>
+  </si>
+  <si>
+    <t>Countries with very high risk in</t>
+  </si>
+  <si>
+    <t>Silent Countries</t>
+  </si>
+  <si>
+    <t>Number of silent Countries</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>Number of countries with population immunity</t>
+  </si>
+  <si>
+    <t>Number of countries under surveillance</t>
+  </si>
+  <si>
+    <t>When a country has fewer than 100,000 inhabitants and has reported at least one suspected case in the most recent year, the tool assigns 0 risk points.  If the paísity has been in epidemiological silence (has not reported any cases), the tool will assign the maximum risk score (8 points).</t>
+  </si>
+  <si>
+    <t>Silent countries</t>
+  </si>
+  <si>
+    <t>Number of countries</t>
+  </si>
+  <si>
+    <t>Number of silent countries</t>
+  </si>
+  <si>
+    <t>Percentage of silent countries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -7263,59 +7276,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7685,8 +7701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B162" zoomScale="125" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7755,13 +7771,13 @@
         <v>1597</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1602</v>
+        <v>1665</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -7772,13 +7788,13 @@
         <v>1578</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1604</v>
+        <v>1666</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -7908,13 +7924,13 @@
         <v>1598</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>993</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -8163,13 +8179,13 @@
         <v>1599</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="93" x14ac:dyDescent="0.35">
@@ -8211,13 +8227,13 @@
         <v>81</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1652</v>
+        <v>1638</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>818</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1653</v>
+        <v>1639</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>911</v>
@@ -8231,13 +8247,13 @@
         <v>1600</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>1005</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -8401,13 +8417,13 @@
         <v>1586</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -8435,13 +8451,13 @@
         <v>1587</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -8452,13 +8468,13 @@
         <v>1588</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>1015</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -8486,13 +8502,13 @@
         <v>1589</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1618</v>
+        <v>1667</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>1016</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8588,13 +8604,13 @@
         <v>1590</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1620</v>
+        <v>1668</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>1018</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -8639,13 +8655,13 @@
         <v>1601</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>1622</v>
+        <v>1669</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>1021</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -8707,13 +8723,13 @@
         <v>1584</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1624</v>
+        <v>1670</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>1566</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -8741,13 +8757,13 @@
         <v>1591</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1025</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.35">
@@ -8860,13 +8876,13 @@
         <v>1592</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>1027</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -8945,13 +8961,13 @@
         <v>1593</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>1032</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -8976,13 +8992,13 @@
         <v>191</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1654</v>
+        <v>1640</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>840</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1655</v>
+        <v>1641</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>932</v>
@@ -8993,7 +9009,7 @@
         <v>192</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1656</v>
+        <v>1642</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>841</v>
@@ -9061,13 +9077,13 @@
         <v>199</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1657</v>
+        <v>1643</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>845</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1658</v>
+        <v>1644</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>937</v>
@@ -9333,7 +9349,7 @@
         <v>239</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1659</v>
+        <v>1645</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>855</v>
@@ -9353,13 +9369,13 @@
         <v>1594</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>1632</v>
+        <v>1671</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>1045</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -10594,13 +10610,13 @@
         <v>1595</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>1624</v>
+        <v>1670</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>1566</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -10628,13 +10644,13 @@
         <v>1585</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1634</v>
+        <v>1672</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>1571</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -10645,18 +10661,18 @@
         <v>1596</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1636</v>
+        <v>1673</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>1574</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E170" xr:uid="{064C7D9D-C4E2-B94C-B003-B8DCE10597B7}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10971,13 +10987,13 @@
         <v>438</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>1090</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1246</v>
@@ -10988,16 +11004,16 @@
         <v>439</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -11294,13 +11310,13 @@
         <v>474</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>1662</v>
+        <v>1648</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>1107</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>1663</v>
+        <v>1649</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>1264</v>
@@ -11311,13 +11327,13 @@
         <v>475</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1664</v>
+        <v>1650</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>1108</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>1665</v>
+        <v>1651</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>1265</v>
@@ -11920,7 +11936,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{94F5FF65-00C6-6F47-9553-2E4604D763C3}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11929,8 +11945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01EA010-864B-8746-BF5D-2E469295667F}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B191" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -12030,13 +12046,13 @@
         <v>554</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>555</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1298</v>
@@ -12049,14 +12065,14 @@
       <c r="B7" s="4" t="s">
         <v>1597</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>1602</v>
+      <c r="C7" s="20" t="s">
+        <v>1665</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -12066,14 +12082,14 @@
       <c r="B8" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>1604</v>
+      <c r="C8" s="20" t="s">
+        <v>1666</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -12472,13 +12488,13 @@
         <v>600</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>555</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>1298</v>
@@ -12489,13 +12505,13 @@
         <v>601</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1668</v>
+        <v>1654</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>1153</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1669</v>
+        <v>1655</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>1316</v>
@@ -12645,13 +12661,13 @@
         <v>1579</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>1642</v>
+        <v>1658</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>1496</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -12676,7 +12692,7 @@
         <v>617</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>1670</v>
+        <v>1656</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>618</v>
@@ -13084,13 +13100,13 @@
         <v>636</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1666</v>
+        <v>1652</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>555</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1667</v>
+        <v>1653</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>1298</v>
@@ -13103,14 +13119,14 @@
       <c r="B69" s="4" t="s">
         <v>1597</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>1602</v>
+      <c r="C69" s="20" t="s">
+        <v>1665</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>638</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -13240,13 +13256,13 @@
         <v>1580</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1644</v>
+        <v>1659</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>1507</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -13257,13 +13273,13 @@
         <v>1581</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>1508</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -13274,13 +13290,13 @@
         <v>1582</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1648</v>
+        <v>1661</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>1509</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -13291,13 +13307,13 @@
         <v>1583</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1650</v>
+        <v>1662</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1651</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -15090,7 +15106,7 @@
         <v>770</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1671</v>
+        <v>1657</v>
       </c>
       <c r="C186" s="13" t="s">
         <v>1219</v>
@@ -15263,13 +15279,13 @@
         <v>1584</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>1624</v>
+        <v>1663</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>1566</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -15297,18 +15313,18 @@
         <v>1585</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>1634</v>
+        <v>1664</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>1571</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E195" xr:uid="{B01EA010-864B-8746-BF5D-2E469295667F}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -15539,38 +15555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
-      <UserInfo>
-        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
-        <AccountId>180</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
-        <AccountId>212</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004BF2CC58B4B21249B9847CAE6C292121" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20382285bea758b172f195e70f01161d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07d4ffe0-35c4-4630-b07d-57ff54db67ac" xmlns:ns3="3a79588a-61f1-49eb-bf82-c7b2c97b1d12" xmlns:ns4="5e13aadc-de86-43ee-b386-40c01ba74c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6472e07e44c21502ea15ef197acea5c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
@@ -15824,33 +15808,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
-    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
+      <UserInfo>
+        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
+        <AccountId>180</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
+        <AccountId>212</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63CBD55-76B1-4172-879F-D383FAB08852}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15868,4 +15858,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9D65FF-F2FD-4C20-A5A5-187B450DED94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
+    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>